--- a/excel/Motherboard.xlsx
+++ b/excel/Motherboard.xlsx
@@ -18,15 +18,60 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+  <si>
+    <t>motherboard_id</t>
+  </si>
+  <si>
+    <t>Socket_id</t>
+  </si>
+  <si>
+    <t>Manufacturer_id</t>
+  </si>
+  <si>
+    <t>chipset_id</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>am4</t>
+  </si>
+  <si>
+    <t>strx4</t>
+  </si>
+  <si>
+    <t>m.2_comp</t>
+  </si>
+  <si>
+    <t>asus</t>
+  </si>
+  <si>
+    <t>gigabyte</t>
+  </si>
+  <si>
+    <t>msi</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="2">
@@ -49,8 +94,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -331,14 +380,710 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y7" sqref="Y7"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="20.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.140625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="9.140625" style="1"/>
+    <col min="12" max="12" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2">
+        <v>2</v>
+      </c>
+      <c r="K2" s="1">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="K3" s="1">
+        <v>2</v>
+      </c>
+      <c r="L3" s="1">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>4</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
+        <v>1</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
+        <v>1</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+      <c r="K8" s="1">
+        <v>9</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>1</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+      <c r="K9" s="1">
+        <v>11</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2">
+        <v>1</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="2">
+        <v>1</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="2">
+        <v>1</v>
+      </c>
+      <c r="C13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2">
+        <v>1</v>
+      </c>
+      <c r="C14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2">
+        <v>1</v>
+      </c>
+      <c r="C15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="2">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="2">
+        <v>1</v>
+      </c>
+      <c r="C18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="2">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="2">
+        <v>1</v>
+      </c>
+      <c r="C21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57" s="1">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel/Motherboard.xlsx
+++ b/excel/Motherboard.xlsx
@@ -383,7 +383,7 @@
   <dimension ref="A1:L101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>

--- a/excel/Motherboard.xlsx
+++ b/excel/Motherboard.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="47">
   <si>
     <t>motherboard_id</t>
   </si>
@@ -52,13 +52,121 @@
   </si>
   <si>
     <t>msi</t>
+  </si>
+  <si>
+    <t>B460</t>
+  </si>
+  <si>
+    <t>480X</t>
+  </si>
+  <si>
+    <t>570X</t>
+  </si>
+  <si>
+    <t>580X</t>
+  </si>
+  <si>
+    <t>A300</t>
+  </si>
+  <si>
+    <t>A320</t>
+  </si>
+  <si>
+    <t>A520</t>
+  </si>
+  <si>
+    <t>B300</t>
+  </si>
+  <si>
+    <t>B350</t>
+  </si>
+  <si>
+    <t>B450</t>
+  </si>
+  <si>
+    <t>B550</t>
+  </si>
+  <si>
+    <t>B550A</t>
+  </si>
+  <si>
+    <t>B560</t>
+  </si>
+  <si>
+    <t>B660</t>
+  </si>
+  <si>
+    <t>H410</t>
+  </si>
+  <si>
+    <t>H470</t>
+  </si>
+  <si>
+    <t>H510</t>
+  </si>
+  <si>
+    <t>H570</t>
+  </si>
+  <si>
+    <t>H610</t>
+  </si>
+  <si>
+    <t>H670</t>
+  </si>
+  <si>
+    <t>PRO 500</t>
+  </si>
+  <si>
+    <t>PRO 560</t>
+  </si>
+  <si>
+    <t>PRO 565</t>
+  </si>
+  <si>
+    <t>Q470</t>
+  </si>
+  <si>
+    <t>Q570</t>
+  </si>
+  <si>
+    <t>W480</t>
+  </si>
+  <si>
+    <t>W580</t>
+  </si>
+  <si>
+    <t>X300</t>
+  </si>
+  <si>
+    <t>X370</t>
+  </si>
+  <si>
+    <t>X470</t>
+  </si>
+  <si>
+    <t>X570</t>
+  </si>
+  <si>
+    <t>Z490</t>
+  </si>
+  <si>
+    <t>Z590</t>
+  </si>
+  <si>
+    <t>Z690</t>
+  </si>
+  <si>
+    <t>TUF GAMING</t>
+  </si>
+  <si>
+    <t>PRIME</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,6 +177,13 @@
     <font>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF252525"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="238"/>
@@ -94,12 +209,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -380,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L101"/>
+  <dimension ref="A1:P101"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
@@ -392,15 +508,18 @@
     <col min="2" max="2" width="13.5703125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="20.85546875" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" style="2" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
     <col min="8" max="11" width="9.140625" style="1"/>
     <col min="12" max="12" width="11.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="16384" width="9.140625" style="1"/>
+    <col min="13" max="14" width="9.140625" style="1"/>
+    <col min="15" max="15" width="4.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -419,8 +538,14 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O1" s="1">
+        <v>1</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -429,6 +554,15 @@
       </c>
       <c r="C2" s="2">
         <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>45</v>
       </c>
       <c r="K2" s="1">
         <v>1</v>
@@ -436,8 +570,14 @@
       <c r="L2" s="1">
         <v>1200</v>
       </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O2" s="1">
+        <v>2</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -446,6 +586,15 @@
       </c>
       <c r="C3" s="2">
         <v>2</v>
+      </c>
+      <c r="D3" s="1">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2">
+        <v>1</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>46</v>
       </c>
       <c r="K3" s="1">
         <v>2</v>
@@ -453,8 +602,14 @@
       <c r="L3" s="1">
         <v>1700</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O3" s="1">
+        <v>3</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -464,14 +619,26 @@
       <c r="C4" s="2">
         <v>2</v>
       </c>
+      <c r="D4" s="1">
+        <v>32</v>
+      </c>
+      <c r="E4" s="2">
+        <v>1</v>
+      </c>
       <c r="K4" s="1">
         <v>3</v>
       </c>
       <c r="L4" s="1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O4" s="1">
+        <v>4</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -481,14 +648,26 @@
       <c r="C5" s="2">
         <v>2</v>
       </c>
+      <c r="D5" s="1">
+        <v>33</v>
+      </c>
+      <c r="E5" s="2">
+        <v>1</v>
+      </c>
       <c r="K5" s="1">
         <v>4</v>
       </c>
       <c r="L5" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O5" s="1">
+        <v>5</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -498,8 +677,20 @@
       <c r="C6" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D6" s="1">
+        <v>34</v>
+      </c>
+      <c r="E6" s="2">
+        <v>1</v>
+      </c>
+      <c r="O6" s="1">
+        <v>6</v>
+      </c>
+      <c r="P6" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -515,8 +706,14 @@
       <c r="L7" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O7" s="1">
+        <v>7</v>
+      </c>
+      <c r="P7" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -532,8 +729,14 @@
       <c r="L8" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O8" s="1">
+        <v>8</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -549,8 +752,14 @@
       <c r="L9" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O9" s="1">
+        <v>9</v>
+      </c>
+      <c r="P9" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -560,8 +769,14 @@
       <c r="C10" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O10" s="1">
+        <v>10</v>
+      </c>
+      <c r="P10" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -571,8 +786,20 @@
       <c r="C11" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="K11" s="1">
+        <v>10</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O11" s="1">
+        <v>11</v>
+      </c>
+      <c r="P11" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -582,8 +809,14 @@
       <c r="C12" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O12" s="1">
+        <v>12</v>
+      </c>
+      <c r="P12" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -593,8 +826,14 @@
       <c r="C13" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O13" s="1">
+        <v>13</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -604,8 +843,14 @@
       <c r="C14" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O14" s="1">
+        <v>14</v>
+      </c>
+      <c r="P14" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -615,8 +860,14 @@
       <c r="C15" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="O15" s="1">
+        <v>15</v>
+      </c>
+      <c r="P15" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -626,8 +877,14 @@
       <c r="C16" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O16" s="1">
+        <v>16</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -637,8 +894,14 @@
       <c r="C17" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O17" s="1">
+        <v>17</v>
+      </c>
+      <c r="P17" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -648,8 +911,14 @@
       <c r="C18" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O18" s="1">
+        <v>18</v>
+      </c>
+      <c r="P18" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -659,8 +928,14 @@
       <c r="C19" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O19" s="1">
+        <v>19</v>
+      </c>
+      <c r="P19" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -670,8 +945,14 @@
       <c r="C20" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O20" s="1">
+        <v>20</v>
+      </c>
+      <c r="P20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -681,138 +962,222 @@
       <c r="C21" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O21" s="1">
+        <v>21</v>
+      </c>
+      <c r="P21" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O22" s="1">
+        <v>22</v>
+      </c>
+      <c r="P22" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O23" s="1">
+        <v>23</v>
+      </c>
+      <c r="P23" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O24" s="1">
+        <v>24</v>
+      </c>
+      <c r="P24" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O25" s="1">
+        <v>25</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O26" s="1">
+        <v>26</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O27" s="1">
+        <v>27</v>
+      </c>
+      <c r="P27" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O28" s="1">
+        <v>28</v>
+      </c>
+      <c r="P28" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O29" s="1">
+        <v>29</v>
+      </c>
+      <c r="P29" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O30" s="1">
+        <v>30</v>
+      </c>
+      <c r="P30" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="O31" s="1">
+        <v>31</v>
+      </c>
+      <c r="P31" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O32" s="1">
+        <v>32</v>
+      </c>
+      <c r="P32" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O33" s="1">
+        <v>33</v>
+      </c>
+      <c r="P33" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="O34" s="1">
+        <v>34</v>
+      </c>
+      <c r="P34" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>47</v>
       </c>

--- a/excel/Motherboard.xlsx
+++ b/excel/Motherboard.xlsx
@@ -510,7 +510,7 @@
   <dimension ref="A1:L48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.25"/>
